--- a/data/R&D_Data.xlsx
+++ b/data/R&D_Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahaadamaly/Library/Mobile Documents/com~apple~CloudDocs/University/Courses/Year 3 - 21:22/ECON30006 Data Science/Course Content/Formula 1 Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE316958-9EE4-0742-BFBD-F3931D3AF6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BF537F-81CC-7646-8708-87DEAA15F2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2900" windowWidth="28800" windowHeight="18000" xr2:uid="{7D22C847-0E74-4D4E-939F-2EF4041C1A51}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{7D22C847-0E74-4D4E-939F-2EF4041C1A51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="All Teams" sheetId="1" r:id="rId2"/>
+    <sheet name="Data_Update" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="All Teams" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t>Renault</t>
   </si>
@@ -154,9 +155,6 @@
     <t>williams</t>
   </si>
   <si>
-    <t>alfa_romeo</t>
-  </si>
-  <si>
     <t>https://www.crash.net/f1/news/221835/1/f1-2015-team-budgets-published-but-which-team-spends-most</t>
   </si>
   <si>
@@ -185,6 +183,18 @@
   </si>
   <si>
     <t>CAGR</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
 </sst>
 </file>
@@ -589,11 +599,931 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F82573-3A6F-DD47-BF95-AF036F4D1DC2}">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="13">
+        <v>205.63200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="13">
+        <v>250.352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="13">
+        <v>329.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="13">
+        <v>467.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="13">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="13">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="13">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>2012</v>
+      </c>
+      <c r="C11" s="13">
+        <v>231.33600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>2013</v>
+      </c>
+      <c r="C12" s="13">
+        <v>368.48685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>2014</v>
+      </c>
+      <c r="C13" s="13">
+        <v>411.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="13">
+        <v>468.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" s="13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="13">
+        <v>345.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>2012</v>
+      </c>
+      <c r="C20" s="13">
+        <v>308.44799999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>2013</v>
+      </c>
+      <c r="C21" s="13">
+        <v>391.17500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="13">
+        <v>411.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="13">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="13">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="13">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="13">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="13">
+        <v>448.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>2012</v>
+      </c>
+      <c r="C29" s="13">
+        <v>282.74400000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>2013</v>
+      </c>
+      <c r="C30" s="13">
+        <v>250.352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31" s="13">
+        <v>329.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>2015</v>
+      </c>
+      <c r="C32" s="13">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>2016</v>
+      </c>
+      <c r="C33" s="13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>2017</v>
+      </c>
+      <c r="C34" s="13">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36" s="13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37" s="13">
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>2012</v>
+      </c>
+      <c r="C38" s="13">
+        <v>167.07599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39" s="13">
+        <v>203.411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>2014</v>
+      </c>
+      <c r="C40" s="13">
+        <v>214.16200000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>2015</v>
+      </c>
+      <c r="C41" s="13">
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>2016</v>
+      </c>
+      <c r="C42" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>2018</v>
+      </c>
+      <c r="C44" s="13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46" s="13">
+        <v>216.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47">
+        <v>2012</v>
+      </c>
+      <c r="C47" s="13">
+        <v>106.6716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>2013</v>
+      </c>
+      <c r="C48" s="13">
+        <v>109.529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>2014</v>
+      </c>
+      <c r="C49" s="13">
+        <v>164.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
+        <v>2015</v>
+      </c>
+      <c r="C50" s="13">
+        <v>137.44999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>2016</v>
+      </c>
+      <c r="C51" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52">
+        <v>2017</v>
+      </c>
+      <c r="C52" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>2018</v>
+      </c>
+      <c r="C53" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>2019</v>
+      </c>
+      <c r="C54" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="13">
+        <v>159.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="13">
+        <v>115.66800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>2013</v>
+      </c>
+      <c r="C57" s="13">
+        <v>156.47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58">
+        <v>2014</v>
+      </c>
+      <c r="C58" s="13">
+        <v>164.74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>2015</v>
+      </c>
+      <c r="C59" s="13">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>2016</v>
+      </c>
+      <c r="C60" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>2017</v>
+      </c>
+      <c r="C61" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="13">
+        <v>159.65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <v>2012</v>
+      </c>
+      <c r="C65" s="13">
+        <v>167.07599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66">
+        <v>2013</v>
+      </c>
+      <c r="C66" s="13">
+        <v>140.82300000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67">
+        <v>2014</v>
+      </c>
+      <c r="C67" s="13">
+        <v>164.74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>2015</v>
+      </c>
+      <c r="C68" s="13">
+        <v>186.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>2017</v>
+      </c>
+      <c r="C70" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>2020</v>
+      </c>
+      <c r="C73" s="13">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74">
+        <v>2012</v>
+      </c>
+      <c r="C74" s="13">
+        <v>115.66800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75">
+        <v>2013</v>
+      </c>
+      <c r="C75" s="13">
+        <v>140.82300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76">
+        <v>2014</v>
+      </c>
+      <c r="C76" s="13">
+        <v>164.74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77">
+        <v>2015</v>
+      </c>
+      <c r="C77" s="13">
+        <v>103.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78">
+        <v>2016</v>
+      </c>
+      <c r="C78" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79">
+        <v>2017</v>
+      </c>
+      <c r="C79" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82">
+        <v>2020</v>
+      </c>
+      <c r="C82" s="13">
+        <v>159.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C0ED7F-D384-F748-A66D-AFE9ABF364C6}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +1565,7 @@
         <v>2020</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -672,7 +1602,7 @@
         <v>430</v>
       </c>
       <c r="K2" s="12">
-        <f>_xlfn.RRI(9, B2,I2)</f>
+        <f t="shared" ref="K2:K10" si="0">_xlfn.RRI(9, B2,I2)</f>
         <v>8.4009620937021579E-2</v>
       </c>
     </row>
@@ -711,7 +1641,7 @@
         <v>345.05</v>
       </c>
       <c r="K3" s="12">
-        <f>_xlfn.RRI(9, B3,I3)</f>
+        <f t="shared" si="0"/>
         <v>4.1997897789664007E-2</v>
       </c>
     </row>
@@ -746,11 +1676,11 @@
         <v>435</v>
       </c>
       <c r="J4" s="13">
-        <f t="shared" ref="J4:J10" si="0">I4*1.03</f>
+        <f t="shared" ref="J4:J10" si="1">I4*1.03</f>
         <v>448.05</v>
       </c>
       <c r="K4" s="12">
-        <f>_xlfn.RRI(9, B4,I4)</f>
+        <f t="shared" si="0"/>
         <v>3.8938164073507808E-2</v>
       </c>
     </row>
@@ -785,11 +1715,11 @@
         <v>250</v>
       </c>
       <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>257.5</v>
+      </c>
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>257.5</v>
-      </c>
-      <c r="K5" s="12">
-        <f>_xlfn.RRI(9, B5,I5)</f>
         <v>-1.3582577014886743E-2</v>
       </c>
     </row>
@@ -824,11 +1754,11 @@
         <v>210</v>
       </c>
       <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>216.3</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
-        <v>216.3</v>
-      </c>
-      <c r="K6" s="12">
-        <f>_xlfn.RRI(9, B6,I6)</f>
         <v>2.5732022286446776E-2</v>
       </c>
     </row>
@@ -863,11 +1793,11 @@
         <v>155</v>
       </c>
       <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>159.65</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>159.65</v>
-      </c>
-      <c r="K7" s="12">
-        <f>_xlfn.RRI(9, B7,I7)</f>
         <v>4.2392869939655853E-2</v>
       </c>
     </row>
@@ -902,11 +1832,11 @@
         <v>155</v>
       </c>
       <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>159.65</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
-        <v>159.65</v>
-      </c>
-      <c r="K8" s="12">
-        <f>_xlfn.RRI(9, B8,I8)</f>
         <v>3.3056975778536168E-2</v>
       </c>
     </row>
@@ -941,17 +1871,17 @@
         <v>150</v>
       </c>
       <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>154.5</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>154.5</v>
-      </c>
-      <c r="K9" s="12">
-        <f>_xlfn.RRI(9, B9,I9)</f>
         <v>-1.1907812391417472E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B10" s="13">
         <f>90*1.2852</f>
@@ -980,11 +1910,11 @@
         <v>155</v>
       </c>
       <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>159.65</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>159.65</v>
-      </c>
-      <c r="K10" s="12">
-        <f>_xlfn.RRI(9, B10,I10)</f>
         <v>3.3056975778536168E-2</v>
       </c>
     </row>
@@ -1002,12 +1932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4BD155-0253-F44A-A589-2B542B532E14}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C39"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,15 +2408,15 @@
         <v>2015</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1494,26 +2424,26 @@
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,10 +2459,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
         <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/R&D_Data.xlsx
+++ b/data/R&D_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahaadamaly/Library/Mobile Documents/com~apple~CloudDocs/University/Courses/Year 3 - 21:22/ECON30006 Data Science/Course Content/Formula 1 Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BF537F-81CC-7646-8708-87DEAA15F2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC393CE2-3A2E-C543-A338-522E2EBA259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{7D22C847-0E74-4D4E-939F-2EF4041C1A51}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F82573-3A6F-DD47-BF95-AF036F4D1DC2}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,8 +673,8 @@
       <c r="B6">
         <v>2016</v>
       </c>
-      <c r="C6" s="13">
-        <v>265</v>
+      <c r="C6">
+        <v>343.108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,8 +772,8 @@
       <c r="B15">
         <v>2016</v>
       </c>
-      <c r="C15" s="13">
-        <v>215</v>
+      <c r="C15">
+        <v>278.91359999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,8 +871,8 @@
       <c r="B24">
         <v>2016</v>
       </c>
-      <c r="C24" s="13">
-        <v>330</v>
+      <c r="C24">
+        <v>427.22480000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,8 +970,8 @@
       <c r="B33">
         <v>2016</v>
       </c>
-      <c r="C33" s="13">
-        <v>185</v>
+      <c r="C33">
+        <v>240.1756</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,8 +1069,8 @@
       <c r="B42">
         <v>2016</v>
       </c>
-      <c r="C42" s="13">
-        <v>150</v>
+      <c r="C42">
+        <v>194.79679999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1168,8 +1168,8 @@
       <c r="B51">
         <v>2016</v>
       </c>
-      <c r="C51" s="13">
-        <v>100</v>
+      <c r="C51">
+        <v>129.4956</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,8 +1267,8 @@
       <c r="B60">
         <v>2016</v>
       </c>
-      <c r="C60" s="13">
-        <v>90</v>
+      <c r="C60">
+        <v>116.214</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1366,8 +1366,8 @@
       <c r="B69">
         <v>2016</v>
       </c>
-      <c r="C69" s="13">
-        <v>105</v>
+      <c r="C69">
+        <v>136.13640000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1465,8 +1465,8 @@
       <c r="B78">
         <v>2016</v>
       </c>
-      <c r="C78" s="13">
-        <v>95</v>
+      <c r="C78">
+        <v>122.8548</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:K10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,8 +1586,8 @@
       <c r="E2" s="14">
         <v>467.4</v>
       </c>
-      <c r="F2" s="14">
-        <v>265</v>
+      <c r="F2">
+        <v>343.108</v>
       </c>
       <c r="G2" s="14">
         <v>365</v>
@@ -1602,7 +1602,7 @@
         <v>430</v>
       </c>
       <c r="K2" s="12">
-        <f t="shared" ref="K2:K10" si="0">_xlfn.RRI(9, B2,I2)</f>
+        <f>_xlfn.RRI(9, B2,I2)</f>
         <v>8.4009620937021579E-2</v>
       </c>
     </row>
@@ -1624,8 +1624,8 @@
       <c r="E3" s="14">
         <v>468.7</v>
       </c>
-      <c r="F3" s="14">
-        <v>215</v>
+      <c r="F3">
+        <v>278.91359999999997</v>
       </c>
       <c r="G3" s="14">
         <v>280</v>
@@ -1641,7 +1641,7 @@
         <v>345.05</v>
       </c>
       <c r="K3" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B3,I3)</f>
         <v>4.1997897789664007E-2</v>
       </c>
     </row>
@@ -1663,8 +1663,8 @@
       <c r="E4" s="14">
         <v>418</v>
       </c>
-      <c r="F4" s="14">
-        <v>330</v>
+      <c r="F4">
+        <v>427.22480000000002</v>
       </c>
       <c r="G4" s="14">
         <v>390</v>
@@ -1676,11 +1676,11 @@
         <v>435</v>
       </c>
       <c r="J4" s="13">
-        <f t="shared" ref="J4:J10" si="1">I4*1.03</f>
+        <f t="shared" ref="J4:J10" si="0">I4*1.03</f>
         <v>448.05</v>
       </c>
       <c r="K4" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B4,I4)</f>
         <v>3.8938164073507808E-2</v>
       </c>
     </row>
@@ -1702,8 +1702,8 @@
       <c r="E5" s="14">
         <v>465</v>
       </c>
-      <c r="F5" s="14">
-        <v>185</v>
+      <c r="F5">
+        <v>240.1756</v>
       </c>
       <c r="G5" s="14">
         <v>205</v>
@@ -1715,11 +1715,11 @@
         <v>250</v>
       </c>
       <c r="J5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>257.5</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B5,I5)</f>
         <v>-1.3582577014886743E-2</v>
       </c>
     </row>
@@ -1741,8 +1741,8 @@
       <c r="E6" s="14">
         <v>139.1</v>
       </c>
-      <c r="F6" s="14">
-        <v>150</v>
+      <c r="F6">
+        <v>194.79679999999999</v>
       </c>
       <c r="G6" s="14">
         <v>180</v>
@@ -1754,11 +1754,11 @@
         <v>210</v>
       </c>
       <c r="J6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>216.3</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B6,I6)</f>
         <v>2.5732022286446776E-2</v>
       </c>
     </row>
@@ -1780,8 +1780,8 @@
       <c r="E7" s="14">
         <v>137.44999999999999</v>
       </c>
-      <c r="F7" s="14">
-        <v>100</v>
+      <c r="F7">
+        <v>129.4956</v>
       </c>
       <c r="G7" s="14">
         <v>135</v>
@@ -1793,11 +1793,11 @@
         <v>155</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>159.65</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B7,I7)</f>
         <v>4.2392869939655853E-2</v>
       </c>
     </row>
@@ -1819,8 +1819,8 @@
       <c r="E8" s="14">
         <v>129.69999999999999</v>
       </c>
-      <c r="F8" s="14">
-        <v>90</v>
+      <c r="F8">
+        <v>116.214</v>
       </c>
       <c r="G8" s="14">
         <v>125</v>
@@ -1832,11 +1832,11 @@
         <v>155</v>
       </c>
       <c r="J8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>159.65</v>
       </c>
       <c r="K8" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B8,I8)</f>
         <v>3.3056975778536168E-2</v>
       </c>
     </row>
@@ -1858,8 +1858,8 @@
       <c r="E9" s="14">
         <v>186.4</v>
       </c>
-      <c r="F9" s="14">
-        <v>105</v>
+      <c r="F9">
+        <v>136.13640000000001</v>
       </c>
       <c r="G9" s="14">
         <v>150</v>
@@ -1871,11 +1871,11 @@
         <v>150</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>154.5</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B9,I9)</f>
         <v>-1.1907812391417472E-2</v>
       </c>
     </row>
@@ -1897,8 +1897,8 @@
       <c r="E10" s="14">
         <v>103.25</v>
       </c>
-      <c r="F10" s="14">
-        <v>95</v>
+      <c r="F10">
+        <v>122.8548</v>
       </c>
       <c r="G10" s="14">
         <v>125</v>
@@ -1910,11 +1910,11 @@
         <v>155</v>
       </c>
       <c r="J10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>159.65</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RRI(9, B10,I10)</f>
         <v>3.3056975778536168E-2</v>
       </c>
     </row>

--- a/data/R&D_Data.xlsx
+++ b/data/R&D_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahaadamaly/Library/Mobile Documents/com~apple~CloudDocs/University/Courses/Year 3 - 21:22/ECON30006 Data Science/Course Content/Formula 1 Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahaadamaly/Documents/GitHub/tahaadamaly.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC393CE2-3A2E-C543-A338-522E2EBA259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71480E51-149C-054C-8396-41384B53E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{7D22C847-0E74-4D4E-939F-2EF4041C1A51}"/>
   </bookViews>
@@ -188,13 +188,13 @@
     <t>alfa</t>
   </si>
   <si>
-    <t>points</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
     <t>team</t>
+  </si>
+  <si>
+    <t>expenditure</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F82573-3A6F-DD47-BF95-AF036F4D1DC2}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,13 +613,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>430</v>
       </c>
       <c r="K2" s="12">
-        <f>_xlfn.RRI(9, B2,I2)</f>
+        <f t="shared" ref="K2:K10" si="0">_xlfn.RRI(9, B2,I2)</f>
         <v>8.4009620937021579E-2</v>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
         <v>345.05</v>
       </c>
       <c r="K3" s="12">
-        <f>_xlfn.RRI(9, B3,I3)</f>
+        <f t="shared" si="0"/>
         <v>4.1997897789664007E-2</v>
       </c>
     </row>
@@ -1676,11 +1676,11 @@
         <v>435</v>
       </c>
       <c r="J4" s="13">
-        <f t="shared" ref="J4:J10" si="0">I4*1.03</f>
+        <f t="shared" ref="J4:J10" si="1">I4*1.03</f>
         <v>448.05</v>
       </c>
       <c r="K4" s="12">
-        <f>_xlfn.RRI(9, B4,I4)</f>
+        <f t="shared" si="0"/>
         <v>3.8938164073507808E-2</v>
       </c>
     </row>
@@ -1715,11 +1715,11 @@
         <v>250</v>
       </c>
       <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>257.5</v>
+      </c>
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>257.5</v>
-      </c>
-      <c r="K5" s="12">
-        <f>_xlfn.RRI(9, B5,I5)</f>
         <v>-1.3582577014886743E-2</v>
       </c>
     </row>
@@ -1754,11 +1754,11 @@
         <v>210</v>
       </c>
       <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>216.3</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
-        <v>216.3</v>
-      </c>
-      <c r="K6" s="12">
-        <f>_xlfn.RRI(9, B6,I6)</f>
         <v>2.5732022286446776E-2</v>
       </c>
     </row>
@@ -1793,11 +1793,11 @@
         <v>155</v>
       </c>
       <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>159.65</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>159.65</v>
-      </c>
-      <c r="K7" s="12">
-        <f>_xlfn.RRI(9, B7,I7)</f>
         <v>4.2392869939655853E-2</v>
       </c>
     </row>
@@ -1832,11 +1832,11 @@
         <v>155</v>
       </c>
       <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>159.65</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
-        <v>159.65</v>
-      </c>
-      <c r="K8" s="12">
-        <f>_xlfn.RRI(9, B8,I8)</f>
         <v>3.3056975778536168E-2</v>
       </c>
     </row>
@@ -1871,11 +1871,11 @@
         <v>150</v>
       </c>
       <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>154.5</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>154.5</v>
-      </c>
-      <c r="K9" s="12">
-        <f>_xlfn.RRI(9, B9,I9)</f>
         <v>-1.1907812391417472E-2</v>
       </c>
     </row>
@@ -1910,11 +1910,11 @@
         <v>155</v>
       </c>
       <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>159.65</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>159.65</v>
-      </c>
-      <c r="K10" s="12">
-        <f>_xlfn.RRI(9, B10,I10)</f>
         <v>3.3056975778536168E-2</v>
       </c>
     </row>
